--- a/assets/templates/template_sales_log.xlsx
+++ b/assets/templates/template_sales_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sales Log</t>
   </si>
@@ -31,13 +31,22 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Range (meters)</t>
   </si>
   <si>
     <t>Duration</t>
+  </si>
+  <si>
+    <t>Time Check Out</t>
+  </si>
+  <si>
+    <t>Time Check In</t>
+  </si>
+  <si>
+    <t>Images Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadwal Kunjungan </t>
   </si>
 </sst>
 </file>
@@ -45,9 +54,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd\-mmm\-yyyy&quot; &quot;hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy&quot; &quot;hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -64,6 +73,13 @@
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -119,31 +135,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,10 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,73 +484,99 @@
     <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="8" customWidth="1"/>
+    <col min="4" max="5" width="26.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="10"/>
-      <c r="F4" s="8"/>
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="10"/>
-      <c r="F5" s="8"/>
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="10"/>
-      <c r="F6" s="8"/>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.3" footer="0.3"/>
+  <pageSetup scale="61" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>